--- a/SuppTables/Supp. Table 10 - HPOPlus_GO_Enrichment.xlsx
+++ b/SuppTables/Supp. Table 10 - HPOPlus_GO_Enrichment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gdrive\umn\UMN\Documents\Manuscripts\ZmIonome Manuscript\WorkingDraft\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\CamocoManuscript\SuppTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -820,7 +820,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,6 +833,25 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -842,7 +861,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -850,30 +869,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,117 +1191,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63" customWidth="1"/>
-    <col min="10" max="10" width="195.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63" style="2" customWidth="1"/>
+    <col min="10" max="10" width="195.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
         <v>28</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>151</v>
       </c>
-      <c r="F2">
-        <v>16953</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="4">
+        <v>16953</v>
+      </c>
+      <c r="G2" s="4">
         <v>2.5604213012673079E-2</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
         <v>28</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>73</v>
       </c>
-      <c r="F3">
-        <v>16953</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="4">
+        <v>16953</v>
+      </c>
+      <c r="G3" s="4">
         <v>6.4302352766437221E-3</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1299,28 +1313,28 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <v>28</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>100</v>
       </c>
-      <c r="F4">
-        <v>16953</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G4" s="2">
         <v>1.1784105615918999E-2</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1331,28 +1345,28 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
         <v>28</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>81</v>
       </c>
-      <c r="F5">
-        <v>16953</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G5" s="2">
         <v>7.8634772954410733E-3</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1363,28 +1377,28 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>194</v>
       </c>
-      <c r="F6">
-        <v>16953</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G6" s="2">
         <v>4.0530530942392701E-2</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1395,28 +1409,28 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>154</v>
       </c>
-      <c r="F7">
-        <v>16953</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G7" s="2">
         <v>2.6554608801708981E-2</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1427,28 +1441,28 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
         <v>28</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>73</v>
       </c>
-      <c r="F8">
-        <v>16953</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G8" s="2">
         <v>6.4302352766437221E-3</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1459,28 +1473,28 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
         <v>28</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>209</v>
       </c>
-      <c r="F9">
-        <v>16953</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G9" s="2">
         <v>4.6353837095560867E-2</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1491,28 +1505,28 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
         <v>28</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>150</v>
       </c>
-      <c r="F10">
-        <v>16953</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G10" s="2">
         <v>2.5290611098951948E-2</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1523,28 +1537,28 @@
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
         <v>28</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>98</v>
       </c>
-      <c r="F11">
-        <v>16953</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G11" s="2">
         <v>1.133810543228426E-2</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1555,28 +1569,28 @@
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
         <v>28</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>102</v>
       </c>
-      <c r="F12">
-        <v>16953</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G12" s="2">
         <v>1.2237758682667721E-2</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1587,28 +1601,28 @@
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
         <v>28</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>102</v>
       </c>
-      <c r="F13">
-        <v>16953</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G13" s="2">
         <v>1.2237758682667721E-2</v>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1619,28 +1633,28 @@
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
         <v>28</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>77</v>
       </c>
-      <c r="F14">
-        <v>16953</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G14" s="2">
         <v>7.1303291132268042E-3</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1651,28 +1665,28 @@
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
         <v>28</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>83</v>
       </c>
-      <c r="F15">
-        <v>16953</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G15" s="2">
         <v>8.2423109733032341E-3</v>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1683,28 +1697,28 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
         <v>28</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>162</v>
       </c>
-      <c r="F16">
-        <v>16953</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G16" s="2">
         <v>2.915832108685272E-2</v>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1715,28 +1729,28 @@
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
         <v>28</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>108</v>
       </c>
-      <c r="F17">
-        <v>16953</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G17" s="2">
         <v>1.3644120372824311E-2</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1747,28 +1761,28 @@
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
         <v>28</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>73</v>
       </c>
-      <c r="F18">
-        <v>16953</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G18" s="2">
         <v>6.4302352766437221E-3</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1779,28 +1793,28 @@
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
         <v>28</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>151</v>
       </c>
-      <c r="F19">
-        <v>16953</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G19" s="2">
         <v>2.5604213012673079E-2</v>
       </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1811,28 +1825,28 @@
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
         <v>28</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>154</v>
       </c>
-      <c r="F20">
-        <v>16953</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G20" s="2">
         <v>2.6554608801708981E-2</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1843,28 +1857,28 @@
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
         <v>28</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>210</v>
       </c>
-      <c r="F21">
-        <v>16953</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G21" s="2">
         <v>4.6752571597268797E-2</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1875,28 +1889,28 @@
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
         <v>28</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>151</v>
       </c>
-      <c r="F22">
-        <v>16953</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G22" s="2">
         <v>2.5604213012673079E-2</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1907,28 +1921,28 @@
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
         <v>28</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>108</v>
       </c>
-      <c r="F23">
-        <v>16953</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G23" s="2">
         <v>1.3644120372824311E-2</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1939,28 +1953,28 @@
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
         <v>28</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>100</v>
       </c>
-      <c r="F24">
-        <v>16953</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G24" s="2">
         <v>1.1784105615918999E-2</v>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1971,28 +1985,28 @@
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
         <v>28</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>154</v>
       </c>
-      <c r="F25">
-        <v>16953</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G25" s="2">
         <v>2.6554608801708981E-2</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2003,28 +2017,28 @@
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
         <v>28</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>154</v>
       </c>
-      <c r="F26">
-        <v>16953</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G26" s="2">
         <v>2.6554608801708981E-2</v>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2035,28 +2049,28 @@
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
         <v>28</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>155</v>
       </c>
-      <c r="F27">
-        <v>16953</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G27" s="2">
         <v>2.687458499749348E-2</v>
       </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2067,28 +2081,28 @@
       <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
         <v>28</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>120</v>
       </c>
-      <c r="F28">
-        <v>16953</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G28" s="2">
         <v>1.6656579743907229E-2</v>
       </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2099,28 +2113,28 @@
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
         <v>28</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>69</v>
       </c>
-      <c r="F29">
-        <v>16953</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G29" s="2">
         <v>5.7636337952707379E-3</v>
       </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2131,28 +2145,28 @@
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
         <v>28</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>93</v>
       </c>
-      <c r="F30">
-        <v>16953</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G30" s="2">
         <v>1.025692708676313E-2</v>
       </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2163,28 +2177,28 @@
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
         <v>28</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>73</v>
       </c>
-      <c r="F31">
-        <v>16953</v>
-      </c>
-      <c r="G31">
+      <c r="F31" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G31" s="2">
         <v>6.4302352766437221E-3</v>
       </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2195,28 +2209,28 @@
       <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
         <v>28</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>135</v>
       </c>
-      <c r="F32">
-        <v>16953</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G32" s="2">
         <v>2.0782785862340399E-2</v>
       </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="H32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2227,28 +2241,28 @@
       <c r="B33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
         <v>28</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>101</v>
       </c>
-      <c r="F33">
-        <v>16953</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G33" s="2">
         <v>1.2009978769439321E-2</v>
       </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2259,28 +2273,28 @@
       <c r="B34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
         <v>28</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>155</v>
       </c>
-      <c r="F34">
-        <v>16953</v>
-      </c>
-      <c r="G34">
+      <c r="F34" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G34" s="2">
         <v>2.687458499749348E-2</v>
       </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2291,28 +2305,28 @@
       <c r="B35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
         <v>28</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>178</v>
       </c>
-      <c r="F35">
-        <v>16953</v>
-      </c>
-      <c r="G35">
+      <c r="F35" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G35" s="2">
         <v>3.465855505753343E-2</v>
       </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2323,28 +2337,28 @@
       <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
         <v>28</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>178</v>
       </c>
-      <c r="F36">
-        <v>16953</v>
-      </c>
-      <c r="G36">
+      <c r="F36" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G36" s="2">
         <v>3.465855505753343E-2</v>
       </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2355,28 +2369,28 @@
       <c r="B37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
         <v>28</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>140</v>
       </c>
-      <c r="F37">
-        <v>16953</v>
-      </c>
-      <c r="G37">
+      <c r="F37" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G37" s="2">
         <v>2.224398322031371E-2</v>
       </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2387,28 +2401,28 @@
       <c r="B38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
         <v>28</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>155</v>
       </c>
-      <c r="F38">
-        <v>16953</v>
-      </c>
-      <c r="G38">
+      <c r="F38" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G38" s="2">
         <v>2.687458499749348E-2</v>
       </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2419,28 +2433,28 @@
       <c r="B39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
         <v>28</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>120</v>
       </c>
-      <c r="F39">
-        <v>16953</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G39" s="2">
         <v>1.6656579743907229E-2</v>
       </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="H39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2451,28 +2465,28 @@
       <c r="B40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
         <v>28</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>133</v>
       </c>
-      <c r="F40">
-        <v>16953</v>
-      </c>
-      <c r="G40">
+      <c r="F40" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G40" s="2">
         <v>2.0210136106650321E-2</v>
       </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2483,28 +2497,28 @@
       <c r="B41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
         <v>28</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>155</v>
       </c>
-      <c r="F41">
-        <v>16953</v>
-      </c>
-      <c r="G41">
+      <c r="F41" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G41" s="2">
         <v>2.687458499749348E-2</v>
       </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2515,28 +2529,28 @@
       <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
         <v>28</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>81</v>
       </c>
-      <c r="F42">
-        <v>16953</v>
-      </c>
-      <c r="G42">
+      <c r="F42" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G42" s="2">
         <v>7.8634772954410733E-3</v>
       </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="H42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2547,28 +2561,28 @@
       <c r="B43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>3</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>54</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>101</v>
       </c>
-      <c r="F43">
-        <v>16953</v>
-      </c>
-      <c r="G43">
+      <c r="F43" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G43" s="2">
         <v>4.0847204855800389E-3</v>
       </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="H43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2579,28 +2593,28 @@
       <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>3</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>54</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>71</v>
       </c>
-      <c r="F44">
-        <v>16953</v>
-      </c>
-      <c r="G44">
+      <c r="F44" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G44" s="2">
         <v>1.4982460311789121E-3</v>
       </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="H44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2611,28 +2625,28 @@
       <c r="B45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>3</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>54</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>71</v>
       </c>
-      <c r="F45">
-        <v>16953</v>
-      </c>
-      <c r="G45">
+      <c r="F45" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G45" s="2">
         <v>1.4982460311789121E-3</v>
       </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="H45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2643,28 +2657,28 @@
       <c r="B46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>3</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>54</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>99</v>
       </c>
-      <c r="F46">
-        <v>16953</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G46" s="2">
         <v>3.8617171846146701E-3</v>
       </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="H46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2675,28 +2689,28 @@
       <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>3</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>54</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>120</v>
       </c>
-      <c r="F47">
-        <v>16953</v>
-      </c>
-      <c r="G47">
+      <c r="F47" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G47" s="2">
         <v>6.5976985732625407E-3</v>
       </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="H47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2707,28 +2721,28 @@
       <c r="B48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>54</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>85</v>
       </c>
-      <c r="F48">
-        <v>16953</v>
-      </c>
-      <c r="G48">
+      <c r="F48" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G48" s="2">
         <v>2.5091582028939959E-3</v>
       </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="H48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2739,28 +2753,28 @@
       <c r="B49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>3</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>54</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>145</v>
       </c>
-      <c r="F49">
-        <v>16953</v>
-      </c>
-      <c r="G49">
+      <c r="F49" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G49" s="2">
         <v>1.1057838203419421E-2</v>
       </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="H49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2771,28 +2785,28 @@
       <c r="B50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>10</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>243</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>151</v>
       </c>
-      <c r="F50">
-        <v>16953</v>
-      </c>
-      <c r="G50">
+      <c r="F50" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G50" s="2">
         <v>6.5166194581215878E-5</v>
       </c>
-      <c r="H50" t="b">
+      <c r="H50" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2803,28 +2817,28 @@
       <c r="B51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>243</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>73</v>
       </c>
-      <c r="F51">
-        <v>16953</v>
-      </c>
-      <c r="G51">
+      <c r="F51" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G51" s="2">
         <v>2.0746506440301089E-2</v>
       </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="H51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2835,28 +2849,28 @@
       <c r="B52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>4</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>243</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>81</v>
       </c>
-      <c r="F52">
-        <v>16953</v>
-      </c>
-      <c r="G52">
+      <c r="F52" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G52" s="2">
         <v>2.905188625531302E-2</v>
       </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="H52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2867,28 +2881,28 @@
       <c r="B53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>10</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>243</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>194</v>
       </c>
-      <c r="F53">
-        <v>16953</v>
-      </c>
-      <c r="G53">
+      <c r="F53" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G53" s="2">
         <v>5.010158983576559E-4</v>
       </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="H53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2899,28 +2913,28 @@
       <c r="B54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>10</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>243</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>154</v>
       </c>
-      <c r="F54">
-        <v>16953</v>
-      </c>
-      <c r="G54">
+      <c r="F54" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G54" s="2">
         <v>7.6888190172495508E-5</v>
       </c>
-      <c r="H54" t="b">
+      <c r="H54" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2931,28 +2945,28 @@
       <c r="B55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>4</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>243</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>73</v>
       </c>
-      <c r="F55">
-        <v>16953</v>
-      </c>
-      <c r="G55">
+      <c r="F55" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G55" s="2">
         <v>2.0746506440301089E-2</v>
       </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="H55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2963,28 +2977,28 @@
       <c r="B56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2">
         <v>243</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>15</v>
       </c>
-      <c r="F56">
-        <v>16953</v>
-      </c>
-      <c r="G56">
+      <c r="F56" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G56" s="2">
         <v>1.8999919120428251E-2</v>
       </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="H56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2995,28 +3009,28 @@
       <c r="B57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2">
         <v>243</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>15</v>
       </c>
-      <c r="F57">
-        <v>16953</v>
-      </c>
-      <c r="G57">
+      <c r="F57" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G57" s="2">
         <v>1.8999919120428251E-2</v>
       </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="H57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3027,28 +3041,28 @@
       <c r="B58" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>7</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>243</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>209</v>
       </c>
-      <c r="F58">
-        <v>16953</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G58" s="2">
         <v>3.1295888678854439E-2</v>
       </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="H58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3059,28 +3073,28 @@
       <c r="B59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>6</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>243</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>150</v>
       </c>
-      <c r="F59">
-        <v>16953</v>
-      </c>
-      <c r="G59">
+      <c r="F59" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G59" s="2">
         <v>2.1148399690635349E-2</v>
       </c>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="H59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3091,28 +3105,28 @@
       <c r="B60" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
         <v>243</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>8</v>
       </c>
-      <c r="F60">
-        <v>16953</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G60" s="2">
         <v>5.4121291890081198E-3</v>
       </c>
-      <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="H60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3123,28 +3137,28 @@
       <c r="B61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>4</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>243</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>77</v>
       </c>
-      <c r="F61">
-        <v>16953</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G61" s="2">
         <v>2.4687778165251681E-2</v>
       </c>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="H61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3155,28 +3169,28 @@
       <c r="B62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>4</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>243</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>83</v>
       </c>
-      <c r="F62">
-        <v>16953</v>
-      </c>
-      <c r="G62">
+      <c r="F62" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G62" s="2">
         <v>3.1394728700819982E-2</v>
       </c>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="H62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3187,28 +3201,28 @@
       <c r="B63" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>243</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>162</v>
       </c>
-      <c r="F63">
-        <v>16953</v>
-      </c>
-      <c r="G63">
+      <c r="F63" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G63" s="2">
         <v>2.9421571282842899E-2</v>
       </c>
-      <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="H63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3219,28 +3233,28 @@
       <c r="B64" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2">
         <v>243</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>20</v>
       </c>
-      <c r="F64">
-        <v>16953</v>
-      </c>
-      <c r="G64">
+      <c r="F64" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G64" s="2">
         <v>3.2809569674193489E-2</v>
       </c>
-      <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="H64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3251,28 +3265,28 @@
       <c r="B65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>4</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>243</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>73</v>
       </c>
-      <c r="F65">
-        <v>16953</v>
-      </c>
-      <c r="G65">
+      <c r="F65" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G65" s="2">
         <v>2.0746506440301089E-2</v>
       </c>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="H65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3283,28 +3297,28 @@
       <c r="B66" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>10</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>243</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>151</v>
       </c>
-      <c r="F66">
-        <v>16953</v>
-      </c>
-      <c r="G66">
+      <c r="F66" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G66" s="2">
         <v>6.5166194581215878E-5</v>
       </c>
-      <c r="H66" t="b">
+      <c r="H66" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3315,28 +3329,28 @@
       <c r="B67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>12</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>243</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>245</v>
       </c>
-      <c r="F67">
-        <v>16953</v>
-      </c>
-      <c r="G67">
+      <c r="F67" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G67" s="2">
         <v>2.2497945040484299E-4</v>
       </c>
-      <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="H67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3347,28 +3361,28 @@
       <c r="B68" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>10</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>243</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>154</v>
       </c>
-      <c r="F68">
-        <v>16953</v>
-      </c>
-      <c r="G68">
+      <c r="F68" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G68" s="2">
         <v>7.6888190172495508E-5</v>
       </c>
-      <c r="H68" t="b">
+      <c r="H68" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3379,28 +3393,28 @@
       <c r="B69" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>10</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>243</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>210</v>
       </c>
-      <c r="F69">
-        <v>16953</v>
-      </c>
-      <c r="G69">
+      <c r="F69" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G69" s="2">
         <v>9.2426150310841908E-4</v>
       </c>
-      <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="H69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3411,28 +3425,28 @@
       <c r="B70" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>10</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>243</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>151</v>
       </c>
-      <c r="F70">
-        <v>16953</v>
-      </c>
-      <c r="G70">
+      <c r="F70" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G70" s="2">
         <v>6.5166194581215878E-5</v>
       </c>
-      <c r="H70" t="b">
+      <c r="H70" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3443,28 +3457,28 @@
       <c r="B71" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71">
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2">
         <v>243</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>15</v>
       </c>
-      <c r="F71">
-        <v>16953</v>
-      </c>
-      <c r="G71">
+      <c r="F71" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G71" s="2">
         <v>1.8999919120428251E-2</v>
       </c>
-      <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="H71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3475,28 +3489,28 @@
       <c r="B72" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2">
         <v>243</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>15</v>
       </c>
-      <c r="F72">
-        <v>16953</v>
-      </c>
-      <c r="G72">
+      <c r="F72" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G72" s="2">
         <v>1.8999919120428251E-2</v>
       </c>
-      <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="H72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3507,28 +3521,28 @@
       <c r="B73" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <v>10</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <v>243</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>154</v>
       </c>
-      <c r="F73">
-        <v>16953</v>
-      </c>
-      <c r="G73">
+      <c r="F73" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G73" s="2">
         <v>7.6888190172495508E-5</v>
       </c>
-      <c r="H73" t="b">
+      <c r="H73" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3539,28 +3553,28 @@
       <c r="B74" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <v>10</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <v>243</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>154</v>
       </c>
-      <c r="F74">
-        <v>16953</v>
-      </c>
-      <c r="G74">
+      <c r="F74" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G74" s="2">
         <v>7.6888190172495508E-5</v>
       </c>
-      <c r="H74" t="b">
+      <c r="H74" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3571,28 +3585,28 @@
       <c r="B75" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>3</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>52</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>153</v>
       </c>
-      <c r="F75">
-        <v>16953</v>
-      </c>
-      <c r="G75">
+      <c r="F75" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G75" s="2">
         <v>1.1532643489393771E-2</v>
       </c>
-      <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="H75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3603,28 +3617,28 @@
       <c r="B76" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>3</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>52</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>153</v>
       </c>
-      <c r="F76">
-        <v>16953</v>
-      </c>
-      <c r="G76">
+      <c r="F76" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G76" s="2">
         <v>1.1532643489393771E-2</v>
       </c>
-      <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="H76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3635,28 +3649,28 @@
       <c r="B77" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77">
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2">
         <v>52</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>79</v>
       </c>
-      <c r="F77">
-        <v>16953</v>
-      </c>
-      <c r="G77">
+      <c r="F77" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G77" s="2">
         <v>2.4461804142135179E-2</v>
       </c>
-      <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="H77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3667,28 +3681,28 @@
       <c r="B78" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
+      <c r="C78" s="2">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2">
         <v>52</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <v>79</v>
       </c>
-      <c r="F78">
-        <v>16953</v>
-      </c>
-      <c r="G78">
+      <c r="F78" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G78" s="2">
         <v>2.4461804142135179E-2</v>
       </c>
-      <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="H78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3699,28 +3713,28 @@
       <c r="B79" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79">
+      <c r="C79" s="2">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2">
         <v>24</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>237</v>
       </c>
-      <c r="F79">
-        <v>16953</v>
-      </c>
-      <c r="G79">
+      <c r="F79" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G79" s="2">
         <v>4.389857312065179E-2</v>
       </c>
-      <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="H79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3731,28 +3745,28 @@
       <c r="B80" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80">
+      <c r="C80" s="2">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2">
         <v>24</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <v>209</v>
       </c>
-      <c r="F80">
-        <v>16953</v>
-      </c>
-      <c r="G80">
+      <c r="F80" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G80" s="2">
         <v>3.494358498389831E-2</v>
       </c>
-      <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="H80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3763,28 +3777,28 @@
       <c r="B81" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81">
+      <c r="C81" s="2">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2">
         <v>24</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <v>150</v>
       </c>
-      <c r="F81">
-        <v>16953</v>
-      </c>
-      <c r="G81">
+      <c r="F81" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G81" s="2">
         <v>1.8895165585923392E-2</v>
       </c>
-      <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="H81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3795,28 +3809,28 @@
       <c r="B82" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="2">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2">
         <v>24</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <v>248</v>
       </c>
-      <c r="F82">
-        <v>16953</v>
-      </c>
-      <c r="G82">
+      <c r="F82" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G82" s="2">
         <v>4.7629003338184567E-2</v>
       </c>
-      <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="H82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3827,28 +3841,28 @@
       <c r="B83" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83">
+      <c r="C83" s="2">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2">
         <v>24</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <v>162</v>
       </c>
-      <c r="F83">
-        <v>16953</v>
-      </c>
-      <c r="G83">
+      <c r="F83" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G83" s="2">
         <v>2.18247478379817E-2</v>
       </c>
-      <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="H83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3859,28 +3873,28 @@
       <c r="B84" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2">
         <v>30</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
         <v>151</v>
       </c>
-      <c r="F84">
-        <v>16953</v>
-      </c>
-      <c r="G84">
+      <c r="F84" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G84" s="2">
         <v>2.9127262644850119E-2</v>
       </c>
-      <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="H84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3891,28 +3905,28 @@
       <c r="B85" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="2">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2">
         <v>30</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2">
         <v>194</v>
       </c>
-      <c r="F85">
-        <v>16953</v>
-      </c>
-      <c r="G85">
+      <c r="F85" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G85" s="2">
         <v>4.5957711294396041E-2</v>
       </c>
-      <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="H85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3923,28 +3937,28 @@
       <c r="B86" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86">
+      <c r="C86" s="2">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2">
         <v>30</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2">
         <v>154</v>
       </c>
-      <c r="F86">
-        <v>16953</v>
-      </c>
-      <c r="G86">
+      <c r="F86" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G86" s="2">
         <v>3.0201542617501308E-2</v>
       </c>
-      <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="H86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3955,28 +3969,28 @@
       <c r="B87" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87">
+      <c r="C87" s="2">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2">
         <v>30</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="2">
         <v>151</v>
       </c>
-      <c r="F87">
-        <v>16953</v>
-      </c>
-      <c r="G87">
+      <c r="F87" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G87" s="2">
         <v>2.9127262644850119E-2</v>
       </c>
-      <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="H87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3987,28 +4001,28 @@
       <c r="B88" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88">
+      <c r="C88" s="2">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2">
         <v>30</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="2">
         <v>154</v>
       </c>
-      <c r="F88">
-        <v>16953</v>
-      </c>
-      <c r="G88">
+      <c r="F88" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G88" s="2">
         <v>3.0201542617501308E-2</v>
       </c>
-      <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="H88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4019,28 +4033,28 @@
       <c r="B89" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-      <c r="D89">
+      <c r="C89" s="2">
+        <v>2</v>
+      </c>
+      <c r="D89" s="2">
         <v>30</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <v>151</v>
       </c>
-      <c r="F89">
-        <v>16953</v>
-      </c>
-      <c r="G89">
+      <c r="F89" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G89" s="2">
         <v>2.9127262644850119E-2</v>
       </c>
-      <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="H89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4051,28 +4065,28 @@
       <c r="B90" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-      <c r="D90">
+      <c r="C90" s="2">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2">
         <v>30</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="2">
         <v>154</v>
       </c>
-      <c r="F90">
-        <v>16953</v>
-      </c>
-      <c r="G90">
+      <c r="F90" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G90" s="2">
         <v>3.0201542617501308E-2</v>
       </c>
-      <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="H90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4083,28 +4097,28 @@
       <c r="B91" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91">
+      <c r="C91" s="2">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2">
         <v>30</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2">
         <v>154</v>
       </c>
-      <c r="F91">
-        <v>16953</v>
-      </c>
-      <c r="G91">
+      <c r="F91" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G91" s="2">
         <v>3.0201542617501308E-2</v>
       </c>
-      <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="H91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4115,28 +4129,28 @@
       <c r="B92" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92">
+      <c r="C92" s="2">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2">
         <v>6</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <v>108</v>
       </c>
-      <c r="F92">
-        <v>16953</v>
-      </c>
-      <c r="G92">
+      <c r="F92" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G92" s="2">
         <v>5.9317015952030892E-4</v>
       </c>
-      <c r="H92" t="b">
+      <c r="H92" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4147,28 +4161,28 @@
       <c r="B93" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="2">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2">
         <v>6</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>154</v>
       </c>
-      <c r="F93">
-        <v>16953</v>
-      </c>
-      <c r="G93">
+      <c r="F93" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G93" s="2">
         <v>1.2006901964473661E-3</v>
       </c>
-      <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="H93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4179,28 +4193,28 @@
       <c r="B94" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="D94">
+      <c r="C94" s="2">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2">
         <v>6</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <v>151</v>
       </c>
-      <c r="F94">
-        <v>16953</v>
-      </c>
-      <c r="G94">
+      <c r="F94" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G94" s="2">
         <v>1.154762718921003E-3</v>
       </c>
-      <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="H94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4211,28 +4225,28 @@
       <c r="B95" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95">
+      <c r="C95" s="2">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2">
         <v>6</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2">
         <v>107</v>
       </c>
-      <c r="F95">
-        <v>16953</v>
-      </c>
-      <c r="G95">
+      <c r="F95" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G95" s="2">
         <v>5.8227736463636155E-4</v>
       </c>
-      <c r="H95" t="b">
+      <c r="H95" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4243,28 +4257,28 @@
       <c r="B96" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
+      <c r="C96" s="2">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2">
         <v>6</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
         <v>140</v>
       </c>
-      <c r="F96">
-        <v>16953</v>
-      </c>
-      <c r="G96">
+      <c r="F96" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G96" s="2">
         <v>9.9385177320698804E-4</v>
       </c>
-      <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="H96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4275,28 +4289,28 @@
       <c r="B97" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97">
+      <c r="C97" s="2">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2">
         <v>6</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2">
         <v>213</v>
       </c>
-      <c r="F97">
-        <v>16953</v>
-      </c>
-      <c r="G97">
+      <c r="F97" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G97" s="2">
         <v>2.2797388361559781E-3</v>
       </c>
-      <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="H97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4307,28 +4321,28 @@
       <c r="B98" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98">
+      <c r="C98" s="2">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2">
         <v>6</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2">
         <v>136</v>
       </c>
-      <c r="F98">
-        <v>16953</v>
-      </c>
-      <c r="G98">
+      <c r="F98" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G98" s="2">
         <v>9.3826534134719419E-4</v>
       </c>
-      <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="H98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4339,28 +4353,28 @@
       <c r="B99" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
         <v>3</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <v>6</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="2">
         <v>108</v>
       </c>
-      <c r="F99">
-        <v>16953</v>
-      </c>
-      <c r="G99">
+      <c r="F99" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G99" s="2">
         <v>4.9592368018958109E-6</v>
       </c>
-      <c r="H99" t="b">
+      <c r="H99" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4371,28 +4385,28 @@
       <c r="B100" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <v>3</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
         <v>6</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="2">
         <v>154</v>
       </c>
-      <c r="F100">
-        <v>16953</v>
-      </c>
-      <c r="G100">
+      <c r="F100" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G100" s="2">
         <v>1.4410933277951869E-5</v>
       </c>
-      <c r="H100" t="b">
+      <c r="H100" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4403,28 +4417,28 @@
       <c r="B101" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101">
+      <c r="C101" s="2">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2">
         <v>6</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
         <v>105</v>
       </c>
-      <c r="F101">
-        <v>16953</v>
-      </c>
-      <c r="G101">
+      <c r="F101" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G101" s="2">
         <v>5.6078953964147106E-4</v>
       </c>
-      <c r="H101" t="b">
+      <c r="H101" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4435,28 +4449,28 @@
       <c r="B102" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102">
+      <c r="C102" s="2">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2">
         <v>6</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="2">
         <v>86</v>
       </c>
-      <c r="F102">
-        <v>16953</v>
-      </c>
-      <c r="G102">
+      <c r="F102" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G102" s="2">
         <v>3.7652673490378108E-4</v>
       </c>
-      <c r="H102" t="b">
+      <c r="H102" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4467,28 +4481,28 @@
       <c r="B103" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-      <c r="D103">
+      <c r="C103" s="2">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2">
         <v>6</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2">
         <v>76</v>
       </c>
-      <c r="F103">
-        <v>16953</v>
-      </c>
-      <c r="G103">
+      <c r="F103" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G103" s="2">
         <v>2.9406130705745328E-4</v>
       </c>
-      <c r="H103" t="b">
+      <c r="H103" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4499,28 +4513,28 @@
       <c r="B104" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="2">
         <v>3</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
         <v>6</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="2">
         <v>151</v>
       </c>
-      <c r="F104">
-        <v>16953</v>
-      </c>
-      <c r="G104">
+      <c r="F104" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G104" s="2">
         <v>1.358516119425422E-5</v>
       </c>
-      <c r="H104" t="b">
+      <c r="H104" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4531,28 +4545,28 @@
       <c r="B105" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105">
+      <c r="C105" s="2">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2">
         <v>6</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="2">
         <v>36</v>
       </c>
-      <c r="F105">
-        <v>16953</v>
-      </c>
-      <c r="G105">
+      <c r="F105" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G105" s="2">
         <v>6.541392988503199E-5</v>
       </c>
-      <c r="H105" t="b">
+      <c r="H105" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4563,28 +4577,28 @@
       <c r="B106" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-      <c r="D106">
+      <c r="C106" s="2">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2">
         <v>6</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="2">
         <v>33</v>
       </c>
-      <c r="F106">
-        <v>16953</v>
-      </c>
-      <c r="G106">
+      <c r="F106" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G106" s="2">
         <v>5.484900531939031E-5</v>
       </c>
-      <c r="H106" t="b">
+      <c r="H106" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4595,28 +4609,28 @@
       <c r="B107" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C107">
-        <v>2</v>
-      </c>
-      <c r="D107">
+      <c r="C107" s="2">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2">
         <v>6</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="2">
         <v>40</v>
       </c>
-      <c r="F107">
-        <v>16953</v>
-      </c>
-      <c r="G107">
+      <c r="F107" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G107" s="2">
         <v>8.093767937435388E-5</v>
       </c>
-      <c r="H107" t="b">
+      <c r="H107" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J107" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4627,28 +4641,28 @@
       <c r="B108" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-      <c r="D108">
+      <c r="C108" s="2">
+        <v>2</v>
+      </c>
+      <c r="D108" s="2">
         <v>6</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2">
         <v>40</v>
       </c>
-      <c r="F108">
-        <v>16953</v>
-      </c>
-      <c r="G108">
+      <c r="F108" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G108" s="2">
         <v>8.093767937435388E-5</v>
       </c>
-      <c r="H108" t="b">
+      <c r="H108" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4659,28 +4673,28 @@
       <c r="B109" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
         <v>3</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <v>6</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
         <v>107</v>
       </c>
-      <c r="F109">
-        <v>16953</v>
-      </c>
-      <c r="G109">
+      <c r="F109" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G109" s="2">
         <v>4.8221228895551144E-6</v>
       </c>
-      <c r="H109" t="b">
+      <c r="H109" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4691,28 +4705,28 @@
       <c r="B110" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
         <v>3</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>6</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="2">
         <v>140</v>
       </c>
-      <c r="F110">
-        <v>16953</v>
-      </c>
-      <c r="G110">
+      <c r="F110" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G110" s="2">
         <v>1.082604680927516E-5</v>
       </c>
-      <c r="H110" t="b">
+      <c r="H110" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4723,28 +4737,28 @@
       <c r="B111" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111">
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2">
         <v>6</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="2">
         <v>52</v>
       </c>
-      <c r="F111">
-        <v>16953</v>
-      </c>
-      <c r="G111">
+      <c r="F111" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G111" s="2">
         <v>1.3733425324267799E-4</v>
       </c>
-      <c r="H111" t="b">
+      <c r="H111" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J111" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4755,28 +4769,28 @@
       <c r="B112" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C112">
-        <v>2</v>
-      </c>
-      <c r="D112">
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2">
         <v>6</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2">
         <v>105</v>
       </c>
-      <c r="F112">
-        <v>16953</v>
-      </c>
-      <c r="G112">
+      <c r="F112" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G112" s="2">
         <v>5.6078953964147106E-4</v>
       </c>
-      <c r="H112" t="b">
+      <c r="H112" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4787,28 +4801,28 @@
       <c r="B113" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="2">
         <v>3</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="2">
         <v>6</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="2">
         <v>213</v>
       </c>
-      <c r="F113">
-        <v>16953</v>
-      </c>
-      <c r="G113">
+      <c r="F113" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G113" s="2">
         <v>3.8037250858771698E-5</v>
       </c>
-      <c r="H113" t="b">
+      <c r="H113" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J113" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4819,28 +4833,28 @@
       <c r="B114" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="2">
         <v>3</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="2">
         <v>6</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="2">
         <v>136</v>
       </c>
-      <c r="F114">
-        <v>16953</v>
-      </c>
-      <c r="G114">
+      <c r="F114" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G114" s="2">
         <v>9.9233260661245857E-6</v>
       </c>
-      <c r="H114" t="b">
+      <c r="H114" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4851,28 +4865,28 @@
       <c r="B115" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-      <c r="D115">
+      <c r="C115" s="2">
+        <v>2</v>
+      </c>
+      <c r="D115" s="2">
         <v>6</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
         <v>62</v>
       </c>
-      <c r="F115">
-        <v>16953</v>
-      </c>
-      <c r="G115">
+      <c r="F115" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G115" s="2">
         <v>1.9554318795640639E-4</v>
       </c>
-      <c r="H115" t="b">
+      <c r="H115" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4883,28 +4897,28 @@
       <c r="B116" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-      <c r="D116">
+      <c r="C116" s="2">
+        <v>2</v>
+      </c>
+      <c r="D116" s="2">
         <v>6</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="2">
         <v>47</v>
       </c>
-      <c r="F116">
-        <v>16953</v>
-      </c>
-      <c r="G116">
+      <c r="F116" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G116" s="2">
         <v>1.120477317558278E-4</v>
       </c>
-      <c r="H116" t="b">
+      <c r="H116" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4915,28 +4929,28 @@
       <c r="B117" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-      <c r="D117">
+      <c r="C117" s="2">
+        <v>2</v>
+      </c>
+      <c r="D117" s="2">
         <v>6</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="2">
         <v>47</v>
       </c>
-      <c r="F117">
-        <v>16953</v>
-      </c>
-      <c r="G117">
+      <c r="F117" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G117" s="2">
         <v>1.120477317558278E-4</v>
       </c>
-      <c r="H117" t="b">
+      <c r="H117" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4947,28 +4961,28 @@
       <c r="B118" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C118">
-        <v>2</v>
-      </c>
-      <c r="D118">
+      <c r="C118" s="2">
+        <v>2</v>
+      </c>
+      <c r="D118" s="2">
         <v>6</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="2">
         <v>108</v>
       </c>
-      <c r="F118">
-        <v>16953</v>
-      </c>
-      <c r="G118">
+      <c r="F118" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G118" s="2">
         <v>5.9317015952030892E-4</v>
       </c>
-      <c r="H118" t="b">
+      <c r="H118" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4979,28 +4993,28 @@
       <c r="B119" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C119">
-        <v>2</v>
-      </c>
-      <c r="D119">
+      <c r="C119" s="2">
+        <v>2</v>
+      </c>
+      <c r="D119" s="2">
         <v>6</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="2">
         <v>154</v>
       </c>
-      <c r="F119">
-        <v>16953</v>
-      </c>
-      <c r="G119">
+      <c r="F119" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G119" s="2">
         <v>1.2006901964473661E-3</v>
       </c>
-      <c r="H119" t="b">
-        <v>0</v>
-      </c>
-      <c r="I119" t="s">
+      <c r="H119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5011,28 +5025,28 @@
       <c r="B120" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-      <c r="D120">
+      <c r="C120" s="2">
+        <v>2</v>
+      </c>
+      <c r="D120" s="2">
         <v>6</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="2">
         <v>151</v>
       </c>
-      <c r="F120">
-        <v>16953</v>
-      </c>
-      <c r="G120">
+      <c r="F120" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G120" s="2">
         <v>1.154762718921003E-3</v>
       </c>
-      <c r="H120" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="H120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J120" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5043,28 +5057,28 @@
       <c r="B121" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C121">
-        <v>2</v>
-      </c>
-      <c r="D121">
+      <c r="C121" s="2">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2">
         <v>6</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="2">
         <v>107</v>
       </c>
-      <c r="F121">
-        <v>16953</v>
-      </c>
-      <c r="G121">
+      <c r="F121" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G121" s="2">
         <v>5.8227736463636155E-4</v>
       </c>
-      <c r="H121" t="b">
+      <c r="H121" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J121" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5075,28 +5089,28 @@
       <c r="B122" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C122">
-        <v>2</v>
-      </c>
-      <c r="D122">
+      <c r="C122" s="2">
+        <v>2</v>
+      </c>
+      <c r="D122" s="2">
         <v>6</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="2">
         <v>140</v>
       </c>
-      <c r="F122">
-        <v>16953</v>
-      </c>
-      <c r="G122">
+      <c r="F122" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G122" s="2">
         <v>9.9385177320698804E-4</v>
       </c>
-      <c r="H122" t="b">
+      <c r="H122" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J122" t="s">
+      <c r="J122" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5107,28 +5121,28 @@
       <c r="B123" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C123">
-        <v>2</v>
-      </c>
-      <c r="D123">
+      <c r="C123" s="2">
+        <v>2</v>
+      </c>
+      <c r="D123" s="2">
         <v>6</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="2">
         <v>213</v>
       </c>
-      <c r="F123">
-        <v>16953</v>
-      </c>
-      <c r="G123">
+      <c r="F123" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G123" s="2">
         <v>2.2797388361559781E-3</v>
       </c>
-      <c r="H123" t="b">
-        <v>0</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="H123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J123" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5139,28 +5153,28 @@
       <c r="B124" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
-      <c r="D124">
+      <c r="C124" s="2">
+        <v>2</v>
+      </c>
+      <c r="D124" s="2">
         <v>6</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="2">
         <v>136</v>
       </c>
-      <c r="F124">
-        <v>16953</v>
-      </c>
-      <c r="G124">
+      <c r="F124" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G124" s="2">
         <v>9.3826534134719419E-4</v>
       </c>
-      <c r="H124" t="b">
+      <c r="H124" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J124" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5171,28 +5185,28 @@
       <c r="B125" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="2">
         <v>4</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="2">
         <v>150</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="2">
         <v>151</v>
       </c>
-      <c r="F125">
-        <v>16953</v>
-      </c>
-      <c r="G125">
+      <c r="F125" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G125" s="2">
         <v>4.5230263979527487E-2</v>
       </c>
-      <c r="H125" t="b">
-        <v>0</v>
-      </c>
-      <c r="I125" t="s">
+      <c r="H125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5203,28 +5217,28 @@
       <c r="B126" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C126">
-        <v>2</v>
-      </c>
-      <c r="D126">
+      <c r="C126" s="2">
+        <v>2</v>
+      </c>
+      <c r="D126" s="2">
         <v>150</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="2">
         <v>23</v>
       </c>
-      <c r="F126">
-        <v>16953</v>
-      </c>
-      <c r="G126">
+      <c r="F126" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G126" s="2">
         <v>1.7420482285545179E-2</v>
       </c>
-      <c r="H126" t="b">
-        <v>0</v>
-      </c>
-      <c r="I126" t="s">
+      <c r="H126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J126" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5235,28 +5249,28 @@
       <c r="B127" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="2">
         <v>3</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="2">
         <v>150</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="2">
         <v>69</v>
       </c>
-      <c r="F127">
-        <v>16953</v>
-      </c>
-      <c r="G127">
+      <c r="F127" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G127" s="2">
         <v>2.3258416974596768E-2</v>
       </c>
-      <c r="H127" t="b">
-        <v>0</v>
-      </c>
-      <c r="I127" t="s">
+      <c r="H127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J127" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5267,28 +5281,28 @@
       <c r="B128" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="2">
         <v>3</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="2">
         <v>150</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="2">
         <v>93</v>
       </c>
-      <c r="F128">
-        <v>16953</v>
-      </c>
-      <c r="G128">
+      <c r="F128" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G128" s="2">
         <v>4.9505264246285728E-2</v>
       </c>
-      <c r="H128" t="b">
-        <v>0</v>
-      </c>
-      <c r="I128" t="s">
+      <c r="H128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5299,28 +5313,28 @@
       <c r="B129" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
         <v>3</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="2">
         <v>150</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="2">
         <v>73</v>
       </c>
-      <c r="F129">
-        <v>16953</v>
-      </c>
-      <c r="G129">
+      <c r="F129" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G129" s="2">
         <v>2.691798257043293E-2</v>
       </c>
-      <c r="H129" t="b">
-        <v>0</v>
-      </c>
-      <c r="I129" t="s">
+      <c r="H129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5331,28 +5345,28 @@
       <c r="B130" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="2">
         <v>3</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="2">
         <v>150</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="2">
         <v>81</v>
       </c>
-      <c r="F130">
-        <v>16953</v>
-      </c>
-      <c r="G130">
+      <c r="F130" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G130" s="2">
         <v>3.5103792149699713E-2</v>
       </c>
-      <c r="H130" t="b">
-        <v>0</v>
-      </c>
-      <c r="I130" t="s">
+      <c r="H130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J130" t="s">
+      <c r="J130" s="2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5363,28 +5377,28 @@
       <c r="B131" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="2">
         <v>4</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="2">
         <v>150</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="2">
         <v>154</v>
       </c>
-      <c r="F131">
-        <v>16953</v>
-      </c>
-      <c r="G131">
+      <c r="F131" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G131" s="2">
         <v>4.8007448583611917E-2</v>
       </c>
-      <c r="H131" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" t="s">
+      <c r="H131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J131" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5395,28 +5409,28 @@
       <c r="B132" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="2">
         <v>4</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="2">
         <v>150</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="2">
         <v>120</v>
       </c>
-      <c r="F132">
-        <v>16953</v>
-      </c>
-      <c r="G132">
+      <c r="F132" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G132" s="2">
         <v>2.1951015105577398E-2</v>
       </c>
-      <c r="H132" t="b">
-        <v>0</v>
-      </c>
-      <c r="I132" t="s">
+      <c r="H132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J132" t="s">
+      <c r="J132" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5427,28 +5441,28 @@
       <c r="B133" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="2">
         <v>3</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="2">
         <v>150</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="2">
         <v>85</v>
       </c>
-      <c r="F133">
-        <v>16953</v>
-      </c>
-      <c r="G133">
+      <c r="F133" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G133" s="2">
         <v>3.9625083415382581E-2</v>
       </c>
-      <c r="H133" t="b">
-        <v>0</v>
-      </c>
-      <c r="I133" t="s">
+      <c r="H133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J133" s="2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5459,28 +5473,28 @@
       <c r="B134" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C134">
-        <v>2</v>
-      </c>
-      <c r="D134">
+      <c r="C134" s="2">
+        <v>2</v>
+      </c>
+      <c r="D134" s="2">
         <v>150</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="2">
         <v>7</v>
       </c>
-      <c r="F134">
-        <v>16953</v>
-      </c>
-      <c r="G134">
+      <c r="F134" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G134" s="2">
         <v>1.5862455363523161E-3</v>
       </c>
-      <c r="H134" t="b">
-        <v>0</v>
-      </c>
-      <c r="I134" t="s">
+      <c r="H134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5491,28 +5505,28 @@
       <c r="B135" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C135">
-        <v>2</v>
-      </c>
-      <c r="D135">
+      <c r="C135" s="2">
+        <v>2</v>
+      </c>
+      <c r="D135" s="2">
         <v>150</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="2">
         <v>31</v>
       </c>
-      <c r="F135">
-        <v>16953</v>
-      </c>
-      <c r="G135">
+      <c r="F135" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G135" s="2">
         <v>3.0581508865893569E-2</v>
       </c>
-      <c r="H135" t="b">
-        <v>0</v>
-      </c>
-      <c r="I135" t="s">
+      <c r="H135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J135" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5523,28 +5537,28 @@
       <c r="B136" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C136">
-        <v>2</v>
-      </c>
-      <c r="D136">
+      <c r="C136" s="2">
+        <v>2</v>
+      </c>
+      <c r="D136" s="2">
         <v>150</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="2">
         <v>31</v>
       </c>
-      <c r="F136">
-        <v>16953</v>
-      </c>
-      <c r="G136">
+      <c r="F136" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G136" s="2">
         <v>3.0581508865893569E-2</v>
       </c>
-      <c r="H136" t="b">
-        <v>0</v>
-      </c>
-      <c r="I136" t="s">
+      <c r="H136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5555,28 +5569,28 @@
       <c r="B137" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C137">
-        <v>2</v>
-      </c>
-      <c r="D137">
+      <c r="C137" s="2">
+        <v>2</v>
+      </c>
+      <c r="D137" s="2">
         <v>150</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="2">
         <v>31</v>
       </c>
-      <c r="F137">
-        <v>16953</v>
-      </c>
-      <c r="G137">
+      <c r="F137" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G137" s="2">
         <v>3.0581508865893569E-2</v>
       </c>
-      <c r="H137" t="b">
-        <v>0</v>
-      </c>
-      <c r="I137" t="s">
+      <c r="H137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J137" t="s">
+      <c r="J137" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5587,28 +5601,28 @@
       <c r="B138" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="2">
         <v>3</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="2">
         <v>150</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="2">
         <v>81</v>
       </c>
-      <c r="F138">
-        <v>16953</v>
-      </c>
-      <c r="G138">
+      <c r="F138" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G138" s="2">
         <v>3.5103792149699713E-2</v>
       </c>
-      <c r="H138" t="b">
-        <v>0</v>
-      </c>
-      <c r="I138" t="s">
+      <c r="H138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J138" t="s">
+      <c r="J138" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5619,28 +5633,28 @@
       <c r="B139" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="2">
         <v>4</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="2">
         <v>150</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="2">
         <v>151</v>
       </c>
-      <c r="F139">
-        <v>16953</v>
-      </c>
-      <c r="G139">
+      <c r="F139" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G139" s="2">
         <v>4.5230263979527487E-2</v>
       </c>
-      <c r="H139" t="b">
-        <v>0</v>
-      </c>
-      <c r="I139" t="s">
+      <c r="H139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J139" t="s">
+      <c r="J139" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5651,28 +5665,28 @@
       <c r="B140" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C140">
-        <v>2</v>
-      </c>
-      <c r="D140">
+      <c r="C140" s="2">
+        <v>2</v>
+      </c>
+      <c r="D140" s="2">
         <v>150</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="2">
         <v>25</v>
       </c>
-      <c r="F140">
-        <v>16953</v>
-      </c>
-      <c r="G140">
+      <c r="F140" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G140" s="2">
         <v>2.042051275374315E-2</v>
       </c>
-      <c r="H140" t="b">
-        <v>0</v>
-      </c>
-      <c r="I140" t="s">
+      <c r="H140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J140" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5683,28 +5697,28 @@
       <c r="B141" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="2">
         <v>6</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="2">
         <v>150</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="2">
         <v>245</v>
       </c>
-      <c r="F141">
-        <v>16953</v>
-      </c>
-      <c r="G141">
+      <c r="F141" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G141" s="2">
         <v>2.1913506686516971E-2</v>
       </c>
-      <c r="H141" t="b">
-        <v>0</v>
-      </c>
-      <c r="I141" t="s">
+      <c r="H141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J141" t="s">
+      <c r="J141" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5715,28 +5729,28 @@
       <c r="B142" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="2">
         <v>4</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="2">
         <v>150</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="2">
         <v>154</v>
       </c>
-      <c r="F142">
-        <v>16953</v>
-      </c>
-      <c r="G142">
+      <c r="F142" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G142" s="2">
         <v>4.8007448583611917E-2</v>
       </c>
-      <c r="H142" t="b">
-        <v>0</v>
-      </c>
-      <c r="I142" t="s">
+      <c r="H142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J142" t="s">
+      <c r="J142" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5747,28 +5761,28 @@
       <c r="B143" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C143">
-        <v>2</v>
-      </c>
-      <c r="D143">
+      <c r="C143" s="2">
+        <v>2</v>
+      </c>
+      <c r="D143" s="2">
         <v>150</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="2">
         <v>7</v>
       </c>
-      <c r="F143">
-        <v>16953</v>
-      </c>
-      <c r="G143">
+      <c r="F143" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G143" s="2">
         <v>1.5862455363523161E-3</v>
       </c>
-      <c r="H143" t="b">
-        <v>0</v>
-      </c>
-      <c r="I143" t="s">
+      <c r="H143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J143" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5779,28 +5793,28 @@
       <c r="B144" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="2">
         <v>4</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="2">
         <v>150</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="2">
         <v>145</v>
       </c>
-      <c r="F144">
-        <v>16953</v>
-      </c>
-      <c r="G144">
+      <c r="F144" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G144" s="2">
         <v>3.9954676776834258E-2</v>
       </c>
-      <c r="H144" t="b">
-        <v>0</v>
-      </c>
-      <c r="I144" t="s">
+      <c r="H144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J144" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5811,28 +5825,28 @@
       <c r="B145" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="2">
         <v>4</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="2">
         <v>150</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="2">
         <v>151</v>
       </c>
-      <c r="F145">
-        <v>16953</v>
-      </c>
-      <c r="G145">
+      <c r="F145" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G145" s="2">
         <v>4.5230263979527487E-2</v>
       </c>
-      <c r="H145" t="b">
-        <v>0</v>
-      </c>
-      <c r="I145" t="s">
+      <c r="H145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J145" t="s">
+      <c r="J145" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5843,28 +5857,28 @@
       <c r="B146" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="2">
         <v>5</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="2">
         <v>150</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="2">
         <v>79</v>
       </c>
-      <c r="F146">
-        <v>16953</v>
-      </c>
-      <c r="G146">
+      <c r="F146" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G146" s="2">
         <v>6.7539972679897986E-4</v>
       </c>
-      <c r="H146" t="b">
-        <v>0</v>
-      </c>
-      <c r="I146" t="s">
+      <c r="H146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J146" t="s">
+      <c r="J146" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5875,28 +5889,28 @@
       <c r="B147" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="2">
         <v>5</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="2">
         <v>150</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="2">
         <v>79</v>
       </c>
-      <c r="F147">
-        <v>16953</v>
-      </c>
-      <c r="G147">
+      <c r="F147" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G147" s="2">
         <v>6.7539972679897986E-4</v>
       </c>
-      <c r="H147" t="b">
-        <v>0</v>
-      </c>
-      <c r="I147" t="s">
+      <c r="H147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5907,28 +5921,28 @@
       <c r="B148" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="2">
         <v>4</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="2">
         <v>150</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="2">
         <v>154</v>
       </c>
-      <c r="F148">
-        <v>16953</v>
-      </c>
-      <c r="G148">
+      <c r="F148" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G148" s="2">
         <v>4.8007448583611917E-2</v>
       </c>
-      <c r="H148" t="b">
-        <v>0</v>
-      </c>
-      <c r="I148" t="s">
+      <c r="H148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5939,28 +5953,28 @@
       <c r="B149" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="2">
         <v>4</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="2">
         <v>150</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="2">
         <v>154</v>
       </c>
-      <c r="F149">
-        <v>16953</v>
-      </c>
-      <c r="G149">
+      <c r="F149" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G149" s="2">
         <v>4.8007448583611917E-2</v>
       </c>
-      <c r="H149" t="b">
-        <v>0</v>
-      </c>
-      <c r="I149" t="s">
+      <c r="H149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5971,28 +5985,28 @@
       <c r="B150" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="2">
         <v>5</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="2">
         <v>115</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="2">
         <v>233</v>
       </c>
-      <c r="F150">
-        <v>16953</v>
-      </c>
-      <c r="G150">
+      <c r="F150" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G150" s="2">
         <v>2.1304886283573469E-2</v>
       </c>
-      <c r="H150" t="b">
-        <v>0</v>
-      </c>
-      <c r="I150" t="s">
+      <c r="H150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6003,28 +6017,28 @@
       <c r="B151" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="2">
         <v>3</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="2">
         <v>115</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="2">
         <v>110</v>
       </c>
-      <c r="F151">
-        <v>16953</v>
-      </c>
-      <c r="G151">
+      <c r="F151" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G151" s="2">
         <v>3.8898372113620287E-2</v>
       </c>
-      <c r="H151" t="b">
-        <v>0</v>
-      </c>
-      <c r="I151" t="s">
+      <c r="H151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J151" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6035,28 +6049,28 @@
       <c r="B152" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="2">
         <v>5</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="2">
         <v>115</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="2">
         <v>233</v>
       </c>
-      <c r="F152">
-        <v>16953</v>
-      </c>
-      <c r="G152">
+      <c r="F152" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G152" s="2">
         <v>2.1304886283573469E-2</v>
       </c>
-      <c r="H152" t="b">
-        <v>0</v>
-      </c>
-      <c r="I152" t="s">
+      <c r="H152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J152" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6067,28 +6081,28 @@
       <c r="B153" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="2">
         <v>4</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="2">
         <v>115</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="2">
         <v>73</v>
       </c>
-      <c r="F153">
-        <v>16953</v>
-      </c>
-      <c r="G153">
+      <c r="F153" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G153" s="2">
         <v>1.525470442476881E-3</v>
       </c>
-      <c r="H153" t="b">
-        <v>0</v>
-      </c>
-      <c r="I153" t="s">
+      <c r="H153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J153" t="s">
+      <c r="J153" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6099,28 +6113,28 @@
       <c r="B154" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="2">
         <v>4</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="2">
         <v>115</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="2">
         <v>100</v>
       </c>
-      <c r="F154">
-        <v>16953</v>
-      </c>
-      <c r="G154">
+      <c r="F154" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G154" s="2">
         <v>4.7791897369451044E-3</v>
       </c>
-      <c r="H154" t="b">
-        <v>0</v>
-      </c>
-      <c r="I154" t="s">
+      <c r="H154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6131,28 +6145,28 @@
       <c r="B155" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="2">
         <v>4</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="2">
         <v>115</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="2">
         <v>81</v>
       </c>
-      <c r="F155">
-        <v>16953</v>
-      </c>
-      <c r="G155">
+      <c r="F155" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G155" s="2">
         <v>2.237063616361638E-3</v>
       </c>
-      <c r="H155" t="b">
-        <v>0</v>
-      </c>
-      <c r="I155" t="s">
+      <c r="H155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J155" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6163,28 +6177,28 @@
       <c r="B156" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="2">
         <v>6</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="2">
         <v>115</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="2">
         <v>237</v>
       </c>
-      <c r="F156">
-        <v>16953</v>
-      </c>
-      <c r="G156">
+      <c r="F156" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G156" s="2">
         <v>5.5618391061206538E-3</v>
       </c>
-      <c r="H156" t="b">
-        <v>0</v>
-      </c>
-      <c r="I156" t="s">
+      <c r="H156" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J156" t="s">
+      <c r="J156" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6195,28 +6209,28 @@
       <c r="B157" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="2">
         <v>4</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="2">
         <v>115</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="2">
         <v>73</v>
       </c>
-      <c r="F157">
-        <v>16953</v>
-      </c>
-      <c r="G157">
+      <c r="F157" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G157" s="2">
         <v>1.525470442476881E-3</v>
       </c>
-      <c r="H157" t="b">
-        <v>0</v>
-      </c>
-      <c r="I157" t="s">
+      <c r="H157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6227,28 +6241,28 @@
       <c r="B158" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="2">
         <v>5</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="2">
         <v>115</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="2">
         <v>209</v>
       </c>
-      <c r="F158">
-        <v>16953</v>
-      </c>
-      <c r="G158">
+      <c r="F158" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G158" s="2">
         <v>1.397067140108367E-2</v>
       </c>
-      <c r="H158" t="b">
-        <v>0</v>
-      </c>
-      <c r="I158" t="s">
+      <c r="H158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J158" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6259,28 +6273,28 @@
       <c r="B159" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="2">
         <v>4</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="2">
         <v>115</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="2">
         <v>150</v>
       </c>
-      <c r="F159">
-        <v>16953</v>
-      </c>
-      <c r="G159">
+      <c r="F159" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G159" s="2">
         <v>1.910361857284484E-2</v>
       </c>
-      <c r="H159" t="b">
-        <v>0</v>
-      </c>
-      <c r="I159" t="s">
+      <c r="H159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J159" t="s">
+      <c r="J159" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6291,28 +6305,28 @@
       <c r="B160" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="2">
         <v>4</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="2">
         <v>115</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="2">
         <v>98</v>
       </c>
-      <c r="F160">
-        <v>16953</v>
-      </c>
-      <c r="G160">
+      <c r="F160" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G160" s="2">
         <v>4.4483279433984498E-3</v>
       </c>
-      <c r="H160" t="b">
-        <v>0</v>
-      </c>
-      <c r="I160" t="s">
+      <c r="H160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J160" t="s">
+      <c r="J160" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6323,28 +6337,28 @@
       <c r="B161" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="2">
         <v>5</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="2">
         <v>115</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="2">
         <v>248</v>
       </c>
-      <c r="F161">
-        <v>16953</v>
-      </c>
-      <c r="G161">
+      <c r="F161" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G161" s="2">
         <v>2.6968718849252459E-2</v>
       </c>
-      <c r="H161" t="b">
-        <v>0</v>
-      </c>
-      <c r="I161" t="s">
+      <c r="H161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J161" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6355,28 +6369,28 @@
       <c r="B162" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="2">
         <v>4</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="2">
         <v>115</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="2">
         <v>102</v>
       </c>
-      <c r="F162">
-        <v>16953</v>
-      </c>
-      <c r="G162">
+      <c r="F162" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G162" s="2">
         <v>5.1262166402876374E-3</v>
       </c>
-      <c r="H162" t="b">
-        <v>0</v>
-      </c>
-      <c r="I162" t="s">
+      <c r="H162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J162" t="s">
+      <c r="J162" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6387,28 +6401,28 @@
       <c r="B163" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="2">
         <v>4</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="2">
         <v>115</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="2">
         <v>102</v>
       </c>
-      <c r="F163">
-        <v>16953</v>
-      </c>
-      <c r="G163">
+      <c r="F163" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G163" s="2">
         <v>5.1262166402876374E-3</v>
       </c>
-      <c r="H163" t="b">
-        <v>0</v>
-      </c>
-      <c r="I163" t="s">
+      <c r="H163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J163" t="s">
+      <c r="J163" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6419,28 +6433,28 @@
       <c r="B164" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="2">
         <v>4</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="2">
         <v>115</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="2">
         <v>77</v>
       </c>
-      <c r="F164">
-        <v>16953</v>
-      </c>
-      <c r="G164">
+      <c r="F164" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G164" s="2">
         <v>1.8577215598111149E-3</v>
       </c>
-      <c r="H164" t="b">
-        <v>0</v>
-      </c>
-      <c r="I164" t="s">
+      <c r="H164" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J164" t="s">
+      <c r="J164" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6451,28 +6465,28 @@
       <c r="B165" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="2">
         <v>4</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="2">
         <v>115</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="2">
         <v>83</v>
       </c>
-      <c r="F165">
-        <v>16953</v>
-      </c>
-      <c r="G165">
+      <c r="F165" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G165" s="2">
         <v>2.4454027634610029E-3</v>
       </c>
-      <c r="H165" t="b">
-        <v>0</v>
-      </c>
-      <c r="I165" t="s">
+      <c r="H165" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J165" t="s">
+      <c r="J165" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6483,28 +6497,28 @@
       <c r="B166" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="2">
         <v>4</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="2">
         <v>115</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="2">
         <v>162</v>
       </c>
-      <c r="F166">
-        <v>16953</v>
-      </c>
-      <c r="G166">
+      <c r="F166" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G166" s="2">
         <v>2.4521475863221821E-2</v>
       </c>
-      <c r="H166" t="b">
-        <v>0</v>
-      </c>
-      <c r="I166" t="s">
+      <c r="H166" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J166" t="s">
+      <c r="J166" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6515,28 +6529,28 @@
       <c r="B167" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="2">
         <v>4</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="2">
         <v>115</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="2">
         <v>108</v>
       </c>
-      <c r="F167">
-        <v>16953</v>
-      </c>
-      <c r="G167">
+      <c r="F167" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G167" s="2">
         <v>6.2677373336637449E-3</v>
       </c>
-      <c r="H167" t="b">
-        <v>0</v>
-      </c>
-      <c r="I167" t="s">
+      <c r="H167" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J167" t="s">
+      <c r="J167" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6547,28 +6561,28 @@
       <c r="B168" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="2">
         <v>4</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="2">
         <v>115</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="2">
         <v>73</v>
       </c>
-      <c r="F168">
-        <v>16953</v>
-      </c>
-      <c r="G168">
+      <c r="F168" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G168" s="2">
         <v>1.525470442476881E-3</v>
       </c>
-      <c r="H168" t="b">
-        <v>0</v>
-      </c>
-      <c r="I168" t="s">
+      <c r="H168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J168" t="s">
+      <c r="J168" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6579,28 +6593,28 @@
       <c r="B169" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="2">
         <v>6</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="2">
         <v>115</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="2">
         <v>279</v>
       </c>
-      <c r="F169">
-        <v>16953</v>
-      </c>
-      <c r="G169">
+      <c r="F169" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G169" s="2">
         <v>1.1908395637339879E-2</v>
       </c>
-      <c r="H169" t="b">
-        <v>0</v>
-      </c>
-      <c r="I169" t="s">
+      <c r="H169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J169" t="s">
+      <c r="J169" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6611,28 +6625,28 @@
       <c r="B170" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="2">
         <v>4</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="2">
         <v>115</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="2">
         <v>108</v>
       </c>
-      <c r="F170">
-        <v>16953</v>
-      </c>
-      <c r="G170">
+      <c r="F170" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G170" s="2">
         <v>6.2677373336637449E-3</v>
       </c>
-      <c r="H170" t="b">
-        <v>0</v>
-      </c>
-      <c r="I170" t="s">
+      <c r="H170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J170" t="s">
+      <c r="J170" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6643,28 +6657,28 @@
       <c r="B171" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="2">
         <v>4</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="2">
         <v>115</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="2">
         <v>100</v>
       </c>
-      <c r="F171">
-        <v>16953</v>
-      </c>
-      <c r="G171">
+      <c r="F171" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G171" s="2">
         <v>4.7791897369451044E-3</v>
       </c>
-      <c r="H171" t="b">
-        <v>0</v>
-      </c>
-      <c r="I171" t="s">
+      <c r="H171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J171" t="s">
+      <c r="J171" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6675,28 +6689,28 @@
       <c r="B172" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="2">
         <v>3</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="2">
         <v>115</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="2">
         <v>110</v>
       </c>
-      <c r="F172">
-        <v>16953</v>
-      </c>
-      <c r="G172">
+      <c r="F172" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G172" s="2">
         <v>3.8898372113620287E-2</v>
       </c>
-      <c r="H172" t="b">
-        <v>0</v>
-      </c>
-      <c r="I172" t="s">
+      <c r="H172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J172" t="s">
+      <c r="J172" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6707,28 +6721,28 @@
       <c r="B173" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="2">
         <v>5</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="2">
         <v>115</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="2">
         <v>233</v>
       </c>
-      <c r="F173">
-        <v>16953</v>
-      </c>
-      <c r="G173">
+      <c r="F173" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G173" s="2">
         <v>2.1304886283573469E-2</v>
       </c>
-      <c r="H173" t="b">
-        <v>0</v>
-      </c>
-      <c r="I173" t="s">
+      <c r="H173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J173" t="s">
+      <c r="J173" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6739,28 +6753,28 @@
       <c r="B174" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="2">
         <v>7</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="2">
         <v>116</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="2">
         <v>151</v>
       </c>
-      <c r="F174">
-        <v>16953</v>
-      </c>
-      <c r="G174">
+      <c r="F174" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G174" s="2">
         <v>8.0189815111004464E-5</v>
       </c>
-      <c r="H174" t="b">
+      <c r="H174" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I174" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J174" t="s">
+      <c r="J174" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6771,28 +6785,28 @@
       <c r="B175" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C175">
-        <v>2</v>
-      </c>
-      <c r="D175">
+      <c r="C175" s="2">
+        <v>2</v>
+      </c>
+      <c r="D175" s="2">
         <v>116</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="2">
         <v>17</v>
       </c>
-      <c r="F175">
-        <v>16953</v>
-      </c>
-      <c r="G175">
+      <c r="F175" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G175" s="2">
         <v>5.9028425025591698E-3</v>
       </c>
-      <c r="H175" t="b">
-        <v>0</v>
-      </c>
-      <c r="I175" t="s">
+      <c r="H175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J175" t="s">
+      <c r="J175" s="2" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6803,28 +6817,28 @@
       <c r="B176" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="2">
         <v>3</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="2">
         <v>116</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="2">
         <v>120</v>
       </c>
-      <c r="F176">
-        <v>16953</v>
-      </c>
-      <c r="G176">
+      <c r="F176" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G176" s="2">
         <v>4.928073024795504E-2</v>
       </c>
-      <c r="H176" t="b">
-        <v>0</v>
-      </c>
-      <c r="I176" t="s">
+      <c r="H176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I176" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J176" t="s">
+      <c r="J176" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6835,28 +6849,28 @@
       <c r="B177" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="2">
         <v>7</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="2">
         <v>116</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="2">
         <v>194</v>
       </c>
-      <c r="F177">
-        <v>16953</v>
-      </c>
-      <c r="G177">
+      <c r="F177" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G177" s="2">
         <v>3.7587970832471011E-4</v>
       </c>
-      <c r="H177" t="b">
-        <v>0</v>
-      </c>
-      <c r="I177" t="s">
+      <c r="H177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J177" t="s">
+      <c r="J177" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6867,28 +6881,28 @@
       <c r="B178" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="2">
         <v>7</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="2">
         <v>116</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="2">
         <v>154</v>
       </c>
-      <c r="F178">
-        <v>16953</v>
-      </c>
-      <c r="G178">
+      <c r="F178" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G178" s="2">
         <v>9.0746940034909236E-5</v>
       </c>
-      <c r="H178" t="b">
+      <c r="H178" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J178" t="s">
+      <c r="J178" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6899,28 +6913,28 @@
       <c r="B179" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="2">
         <v>5</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="2">
         <v>116</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="2">
         <v>237</v>
       </c>
-      <c r="F179">
-        <v>16953</v>
-      </c>
-      <c r="G179">
+      <c r="F179" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G179" s="2">
         <v>2.3493877283614451E-2</v>
       </c>
-      <c r="H179" t="b">
-        <v>0</v>
-      </c>
-      <c r="I179" t="s">
+      <c r="H179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J179" t="s">
+      <c r="J179" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6931,28 +6945,28 @@
       <c r="B180" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="2">
         <v>3</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="2">
         <v>116</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="2">
         <v>101</v>
       </c>
-      <c r="F180">
-        <v>16953</v>
-      </c>
-      <c r="G180">
+      <c r="F180" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G180" s="2">
         <v>3.2062768031545147E-2</v>
       </c>
-      <c r="H180" t="b">
-        <v>0</v>
-      </c>
-      <c r="I180" t="s">
+      <c r="H180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I180" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J180" t="s">
+      <c r="J180" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6963,28 +6977,28 @@
       <c r="B181" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C181">
-        <v>2</v>
-      </c>
-      <c r="D181">
+      <c r="C181" s="2">
+        <v>2</v>
+      </c>
+      <c r="D181" s="2">
         <v>116</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="2">
         <v>20</v>
       </c>
-      <c r="F181">
-        <v>16953</v>
-      </c>
-      <c r="G181">
+      <c r="F181" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G181" s="2">
         <v>8.1371140717881995E-3</v>
       </c>
-      <c r="H181" t="b">
-        <v>0</v>
-      </c>
-      <c r="I181" t="s">
+      <c r="H181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J181" t="s">
+      <c r="J181" s="2" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6995,28 +7009,28 @@
       <c r="B182" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="2">
         <v>3</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="2">
         <v>116</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="2">
         <v>120</v>
       </c>
-      <c r="F182">
-        <v>16953</v>
-      </c>
-      <c r="G182">
+      <c r="F182" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G182" s="2">
         <v>4.928073024795504E-2</v>
       </c>
-      <c r="H182" t="b">
-        <v>0</v>
-      </c>
-      <c r="I182" t="s">
+      <c r="H182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I182" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J182" t="s">
+      <c r="J182" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7027,28 +7041,28 @@
       <c r="B183" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="2">
         <v>7</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="2">
         <v>116</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="2">
         <v>151</v>
       </c>
-      <c r="F183">
-        <v>16953</v>
-      </c>
-      <c r="G183">
+      <c r="F183" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G183" s="2">
         <v>8.0189815111004464E-5</v>
       </c>
-      <c r="H183" t="b">
+      <c r="H183" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I183" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J183" t="s">
+      <c r="J183" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7059,28 +7073,28 @@
       <c r="B184" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="2">
         <v>8</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="2">
         <v>116</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="2">
         <v>245</v>
       </c>
-      <c r="F184">
-        <v>16953</v>
-      </c>
-      <c r="G184">
+      <c r="F184" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G184" s="2">
         <v>2.8173573681975188E-4</v>
       </c>
-      <c r="H184" t="b">
-        <v>0</v>
-      </c>
-      <c r="I184" t="s">
+      <c r="H184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J184" t="s">
+      <c r="J184" s="2" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7091,28 +7105,28 @@
       <c r="B185" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="2">
         <v>7</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="2">
         <v>116</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="2">
         <v>154</v>
       </c>
-      <c r="F185">
-        <v>16953</v>
-      </c>
-      <c r="G185">
+      <c r="F185" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G185" s="2">
         <v>9.0746940034909236E-5</v>
       </c>
-      <c r="H185" t="b">
+      <c r="H185" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J185" t="s">
+      <c r="J185" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7123,28 +7137,28 @@
       <c r="B186" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C186">
-        <v>2</v>
-      </c>
-      <c r="D186">
+      <c r="C186" s="2">
+        <v>2</v>
+      </c>
+      <c r="D186" s="2">
         <v>116</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="2">
         <v>25</v>
       </c>
-      <c r="F186">
-        <v>16953</v>
-      </c>
-      <c r="G186">
+      <c r="F186" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G186" s="2">
         <v>1.256559245360922E-2</v>
       </c>
-      <c r="H186" t="b">
-        <v>0</v>
-      </c>
-      <c r="I186" t="s">
+      <c r="H186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J186" t="s">
+      <c r="J186" s="2" t="s">
         <v>244</v>
       </c>
     </row>
@@ -7155,28 +7169,28 @@
       <c r="B187" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="2">
         <v>7</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="2">
         <v>116</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="2">
         <v>210</v>
       </c>
-      <c r="F187">
-        <v>16953</v>
-      </c>
-      <c r="G187">
+      <c r="F187" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G187" s="2">
         <v>6.0365119395661213E-4</v>
       </c>
-      <c r="H187" t="b">
-        <v>0</v>
-      </c>
-      <c r="I187" t="s">
+      <c r="H187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I187" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J187" t="s">
+      <c r="J187" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7187,28 +7201,28 @@
       <c r="B188" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="2">
         <v>7</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="2">
         <v>116</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="2">
         <v>151</v>
       </c>
-      <c r="F188">
-        <v>16953</v>
-      </c>
-      <c r="G188">
+      <c r="F188" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G188" s="2">
         <v>8.0189815111004464E-5</v>
       </c>
-      <c r="H188" t="b">
+      <c r="H188" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J188" t="s">
+      <c r="J188" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7219,28 +7233,28 @@
       <c r="B189" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="2">
         <v>6</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="2">
         <v>116</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="2">
         <v>279</v>
       </c>
-      <c r="F189">
-        <v>16953</v>
-      </c>
-      <c r="G189">
+      <c r="F189" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G189" s="2">
         <v>1.23900184185834E-2</v>
       </c>
-      <c r="H189" t="b">
-        <v>0</v>
-      </c>
-      <c r="I189" t="s">
+      <c r="H189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I189" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J189" t="s">
+      <c r="J189" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7251,28 +7265,28 @@
       <c r="B190" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="2">
         <v>7</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="2">
         <v>116</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="2">
         <v>154</v>
       </c>
-      <c r="F190">
-        <v>16953</v>
-      </c>
-      <c r="G190">
+      <c r="F190" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G190" s="2">
         <v>9.0746940034909236E-5</v>
       </c>
-      <c r="H190" t="b">
+      <c r="H190" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I190" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J190" t="s">
+      <c r="J190" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7283,28 +7297,28 @@
       <c r="B191" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="2">
         <v>7</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="2">
         <v>116</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="2">
         <v>154</v>
       </c>
-      <c r="F191">
-        <v>16953</v>
-      </c>
-      <c r="G191">
+      <c r="F191" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G191" s="2">
         <v>9.0746940034909236E-5</v>
       </c>
-      <c r="H191" t="b">
+      <c r="H191" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I191" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J191" t="s">
+      <c r="J191" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7315,28 +7329,28 @@
       <c r="B192" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C192">
-        <v>2</v>
-      </c>
-      <c r="D192">
+      <c r="C192" s="2">
+        <v>2</v>
+      </c>
+      <c r="D192" s="2">
         <v>16</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="2">
         <v>233</v>
       </c>
-      <c r="F192">
-        <v>16953</v>
-      </c>
-      <c r="G192">
+      <c r="F192" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G192" s="2">
         <v>1.9882446835713909E-2</v>
       </c>
-      <c r="H192" t="b">
-        <v>0</v>
-      </c>
-      <c r="I192" t="s">
+      <c r="H192" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J192" t="s">
+      <c r="J192" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7347,28 +7361,28 @@
       <c r="B193" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C193">
-        <v>2</v>
-      </c>
-      <c r="D193">
+      <c r="C193" s="2">
+        <v>2</v>
+      </c>
+      <c r="D193" s="2">
         <v>16</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="2">
         <v>233</v>
       </c>
-      <c r="F193">
-        <v>16953</v>
-      </c>
-      <c r="G193">
+      <c r="F193" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G193" s="2">
         <v>1.9882446835713909E-2</v>
       </c>
-      <c r="H193" t="b">
-        <v>0</v>
-      </c>
-      <c r="I193" t="s">
+      <c r="H193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I193" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J193" t="s">
+      <c r="J193" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7379,28 +7393,28 @@
       <c r="B194" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C194">
-        <v>2</v>
-      </c>
-      <c r="D194">
+      <c r="C194" s="2">
+        <v>2</v>
+      </c>
+      <c r="D194" s="2">
         <v>16</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="2">
         <v>282</v>
       </c>
-      <c r="F194">
-        <v>16953</v>
-      </c>
-      <c r="G194">
+      <c r="F194" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G194" s="2">
         <v>2.83753727158217E-2</v>
       </c>
-      <c r="H194" t="b">
-        <v>0</v>
-      </c>
-      <c r="I194" t="s">
+      <c r="H194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="J194" t="s">
+      <c r="J194" s="2" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7411,36 +7425,36 @@
       <c r="B195" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C195">
-        <v>2</v>
-      </c>
-      <c r="D195">
+      <c r="C195" s="2">
+        <v>2</v>
+      </c>
+      <c r="D195" s="2">
         <v>16</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="2">
         <v>233</v>
       </c>
-      <c r="F195">
-        <v>16953</v>
-      </c>
-      <c r="G195">
+      <c r="F195" s="2">
+        <v>16953</v>
+      </c>
+      <c r="G195" s="2">
         <v>1.9882446835713909E-2</v>
       </c>
-      <c r="H195" t="b">
-        <v>0</v>
-      </c>
-      <c r="I195" t="s">
+      <c r="H195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J195" t="s">
+      <c r="J195" s="2" t="s">
         <v>254</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J195"/>
   <sortState ref="A2:J195">
     <sortCondition ref="B2:B195"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>